--- a/biology/Botanique/Tripterygium/Tripterygium.xlsx
+++ b/biology/Botanique/Tripterygium/Tripterygium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tripterygium est un genre de plantes de la famille des Celastraceae.
 </t>
@@ -511,28 +523,30 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (23 septembre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (23 septembre 2019) :
 Tripterygium regelii Sprague &amp; Takeda
 Tripterygium wilfordii Hook.f.
-Selon Catalogue of Life                                   (23 septembre 2019)[3] :
+Selon Catalogue of Life                                   (23 septembre 2019) :
 Tripterygium doianum Ohwi
 Tripterygium wilfordii Hook. fil.
-Selon GRIN            (23 septembre 2019)[4] :
+Selon GRIN            (23 septembre 2019) :
 Tripterygium hypoglaucum (H. Lév.) Hutch.
 Tripterygium regelii Sprague &amp; Takeda
 Tripterygium spp.
 Tripterygium wilfordii Hook. f.
-Selon The Plant List            (23 septembre 2019)[5] :
+Selon The Plant List            (23 septembre 2019) :
 Tripterygium wilfordii Hook. f.
-Selon Tropicos                                           (23 septembre 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (23 septembre 2019) (Attention liste brute contenant possiblement des synonymes) :
 Tripterygium bullockii Hance
 Tripterygium forrestii Loes.
 Tripterygium hypoglaucum (H. Lév.) Hutch.
 Tripterygium regelii Sprague &amp; Takeda
 Tripterygium wilfordii Hook. f.
-Selon World Register of Marine Species                               (23 septembre 2019)[6] :
+Selon World Register of Marine Species                               (23 septembre 2019) :
 Tripterygion delaisi Cadenat &amp; Blache, 1970
 Tripterygion melanurum Guichenot, 1850
 Tripterygion tartessicum Carreras-Carbonell, Pascual &amp; Macpherson, 2007
